--- a/data/trans_dic/IP21B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,87</t>
+          <t>0,0; 80,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,78</t>
+          <t>0,0; 78,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,87</t>
+          <t>0,0; 64,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,04</t>
+          <t>0,0; 50,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 24,76</t>
+          <t>2,99; 25,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 30,94</t>
+          <t>5,8; 31,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 41,58</t>
+          <t>5,29; 41,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 62,63</t>
+          <t>8,2; 61,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 33,52</t>
+          <t>3,84; 30,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 31,64</t>
+          <t>6,26; 34,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,66</t>
+          <t>0,0; 33,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,6</t>
+          <t>0,0; 60,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 22,35</t>
+          <t>6,08; 22,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 26,46</t>
+          <t>8,0; 25,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 31,63</t>
+          <t>5,61; 30,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 47,83</t>
+          <t>6,89; 49,35</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,63</t>
+          <t>7,17; 55,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,29</t>
+          <t>0,0; 56,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,63</t>
+          <t>0,0; 73,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 69,57</t>
+          <t>10,26; 68,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,65</t>
+          <t>0,0; 81,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 47,5</t>
+          <t>7,62; 48,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 49,24</t>
+          <t>10,87; 53,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 69,71</t>
+          <t>0,0; 69,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 24,66</t>
+          <t>4,34; 24,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 30,15</t>
+          <t>9,48; 30,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 39,31</t>
+          <t>7,77; 39,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 52,11</t>
+          <t>7,32; 51,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 21,47</t>
+          <t>2,74; 24,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 29,16</t>
+          <t>7,08; 29,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 39,7</t>
+          <t>10,7; 40,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 54,57</t>
+          <t>6,66; 53,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 19,38</t>
+          <t>5,55; 20,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 25,64</t>
+          <t>10,12; 25,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 34,1</t>
+          <t>12,13; 35,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,81; 43,76</t>
+          <t>11,09; 43,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP21B-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35,63%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>39,86%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>21,11%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>35,63%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,85</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,09</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 80,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>22,85; 100</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 44,41</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 44,41</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,5</t>
+          <t>0,0; 64,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,53</t>
+          <t>0,0; 50,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15,93%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11,24%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>11,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>14,92%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>20,14%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>30,72%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,55%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>15,93%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,24%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>23,43%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 25,59</t>
+          <t>3,76; 33,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 31,71</t>
+          <t>6,27; 30,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 41,28</t>
+          <t>0,0; 34,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 61,71</t>
+          <t>0,0; 61,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 30,58</t>
+          <t>2,79; 24,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 34,1</t>
+          <t>5,64; 33,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,39</t>
+          <t>5,18; 42,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,64</t>
+          <t>8,23; 65,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 22,51</t>
+          <t>5,98; 22,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 25,83</t>
+          <t>7,94; 26,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 30,63</t>
+          <t>7,31; 30,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 49,35</t>
+          <t>6,75; 48,17</t>
         </is>
       </c>
     </row>
@@ -941,44 +941,44 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38,03%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37,85%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>25,16%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>10,67%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>32,45%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>21,09%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>38,03%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>39,04%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
           <t>23,71%</t>
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>36,98%</t>
         </is>
       </c>
     </row>
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 17,08</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 72,27</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10,12; 73,29</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 83,32</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 20,75</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 55,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 56,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 81,86</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 17,08</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,3</t>
+          <t>7,18; 55,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 68,2</t>
+          <t>0,0; 46,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,6</t>
+          <t>0,0; 83,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 48,98</t>
+          <t>5,78; 51,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 53,02</t>
+          <t>10,02; 50,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,64</t>
+          <t>10,11; 71,84</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>12,27%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>18,03%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>21,23%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>25,91%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,72%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>22,51%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 24,53</t>
+          <t>2,51; 21,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 30,58</t>
+          <t>5,22; 30,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 39,12</t>
+          <t>9,84; 39,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 51,12</t>
+          <t>6,57; 51,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 24,36</t>
+          <t>4,29; 22,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 29,73</t>
+          <t>8,1; 31,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 40,69</t>
+          <t>7,93; 40,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 53,93</t>
+          <t>7,28; 54,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 20,01</t>
+          <t>5,38; 19,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 25,81</t>
+          <t>9,75; 25,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 35,12</t>
+          <t>12,2; 33,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 43,27</t>
+          <t>11,04; 43,04</t>
         </is>
       </c>
     </row>
